--- a/intervention/chemistry_auto.xlsx
+++ b/intervention/chemistry_auto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,121 +452,201 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M931252909052</t>
+          <t>W931101108060</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>X931412020027</t>
+          <t>J931101109013</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>J931101109013</t>
+          <t>M931252909052</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>W931101108060</t>
+          <t>X931412020027</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Q931325208064</t>
+          <t>M931321110016</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>U931412020025</t>
+          <t>T931252910046</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>E931100609021</t>
+          <t>Y931321110015</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Y931321309029</t>
+          <t>Q931325208064</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B931383814058</t>
+          <t>Y931321309029</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Y931321110015</t>
+          <t>E931100609021</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>T931252910046</t>
+          <t>U931412020025</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>M931321110016</t>
+          <t>B931383814058</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>D931100609028</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>R931100609011</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Q931100609020</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>M931252110020</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>P931252710020</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Q931101109046</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>R931325310022</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>V931252909047</t>
         </is>
       </c>
     </row>
